--- a/biology/Botanique/Calystegia_soldanella/Calystegia_soldanella.xlsx
+++ b/biology/Botanique/Calystegia_soldanella/Calystegia_soldanella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calystegia soldanella
 Le Liseron des dunes, liseron des sables, liseron soldanelle ou liseron de mer (Calystegia soldanella) est une plante herbacée vivace de la famille des Convolvulacées.
@@ -512,11 +524,48 @@
           <t>Phytonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom scientifique Calystegia provient du grec kalyx, « calice », et stegos, « abri », du verbe stegô, « recouvrir », par allusion aux larges bractées entourant le calice. L'épithète latin soldanella est issu de soldus « sou », allusion aux feuilles en forme de petit parapluie qui évoquent cette pièce de monnaie ronde[1].
-Synonymes
-La plante porte d'autres noms scientifiques parfois utilisés, mais ces synonymes nomenclaturaux sont non valides[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom scientifique Calystegia provient du grec kalyx, « calice », et stegos, « abri », du verbe stegô, « recouvrir », par allusion aux larges bractées entourant le calice. L'épithète latin soldanella est issu de soldus « sou », allusion aux feuilles en forme de petit parapluie qui évoquent cette pièce de monnaie ronde.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Calystegia_soldanella</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calystegia_soldanella</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Phytonymie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La plante porte d'autres noms scientifiques parfois utilisés, mais ces synonymes nomenclaturaux sont non valides :
 Convolvulus soldanella L., 1753, basionyme
 Convolvulus maritimus Lam., 1779
 Convolvulus asarifolius Salisb., 1796
@@ -526,37 +575,77 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Calystegia_soldanella</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Calystegia_soldanella</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Appareil végétatif
-Ce liseron est une plante vivace rhizomateuse (souche grêle à rhizome blanc s'étalant sur 1,5 m de longueur et contribuant à la stabilisation des sols[2]), traçante, procumbente, la tige non volubile qui produit du latex blanc pouvant atteindre 50 à 100 cm de longueur. Les feuilles glabres comme la tige, assez charnues, peuvent être deux fois plus larges que longues. Réniformes et longuement pétiolées, elles ont des oreillettes arrondies, un peu sinuées, et un apex obtus ou émarginé[3].
-Les feuilles montrent des adaptations morpho-anatomiques aux conditions écologiques des systèmes dunaires maritimes : présence de trichomes glandulaires assimilés à des glandes à sel éliminant les sels minéraux en excès et participant à la lutte contre le dessèchement en régulant le contenu des cellules en sels, distribution amphistomatique (stomates sur les deux surfaces foliaires) qui pourrait être une adaptation à l'ensablement, mésophylle constitué d'un parenchyme aquifère avec des cellules renfermant une vacuole riches en mucilages, substances qui absorbent l'eau[4].
-Appareil reproducteur
-La floraison éphémère a lieu de mai à octobre[5]. L'inflorescence est une grappe de fleurs  solitaires axillaires de 3 à 5 cm. Le calice à cinq dents est protégé par une paire de grosses bractéoles ovoïdes à suborbiculaires. La corolle en entonnoir est formée de cinq pétales roses ou pourprés, avec souvent des rayures blanchâtres. L'androcée est constitué de cinq étamines, le pistil de deux carpelles soudés. Ces fleurs hermaphrodites et actinomorphes sont entomogames. Le fruit est une capsule ovoïde glabre, contenant des graines brunes et lisses, barochores[6] et hydrochores. Ces graines portent un revêtement imperméable à l'eau et une cavité remplie d'air qui leur permettent une dissémination plus importante, en flottant dans l'eau de mer pendant un peu plus d'une année, de 15 à 18 mois, tout en gardant jusqu'à 30 % de leur capacité de germination[2] : elles sont transportées et disséminées par les courants océaniques de l'Atlantique nord dans les régions tempérées (Royaume-Uni, Irlande, côte de l'Amérique du Nord[7]), par les courants océaniques de l'Indo-Pacifique dans les régions tempérées ainsi que dans la Manche, la Méditerranée et la Mer Noire[8].
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce liseron est une plante vivace rhizomateuse (souche grêle à rhizome blanc s'étalant sur 1,5 m de longueur et contribuant à la stabilisation des sols), traçante, procumbente, la tige non volubile qui produit du latex blanc pouvant atteindre 50 à 100 cm de longueur. Les feuilles glabres comme la tige, assez charnues, peuvent être deux fois plus larges que longues. Réniformes et longuement pétiolées, elles ont des oreillettes arrondies, un peu sinuées, et un apex obtus ou émarginé.
+Les feuilles montrent des adaptations morpho-anatomiques aux conditions écologiques des systèmes dunaires maritimes : présence de trichomes glandulaires assimilés à des glandes à sel éliminant les sels minéraux en excès et participant à la lutte contre le dessèchement en régulant le contenu des cellules en sels, distribution amphistomatique (stomates sur les deux surfaces foliaires) qui pourrait être une adaptation à l'ensablement, mésophylle constitué d'un parenchyme aquifère avec des cellules renfermant une vacuole riches en mucilages, substances qui absorbent l'eau.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Calystegia_soldanella</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calystegia_soldanella</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison éphémère a lieu de mai à octobre. L'inflorescence est une grappe de fleurs  solitaires axillaires de 3 à 5 cm. Le calice à cinq dents est protégé par une paire de grosses bractéoles ovoïdes à suborbiculaires. La corolle en entonnoir est formée de cinq pétales roses ou pourprés, avec souvent des rayures blanchâtres. L'androcée est constitué de cinq étamines, le pistil de deux carpelles soudés. Ces fleurs hermaphrodites et actinomorphes sont entomogames. Le fruit est une capsule ovoïde glabre, contenant des graines brunes et lisses, barochores et hydrochores. Ces graines portent un revêtement imperméable à l'eau et une cavité remplie d'air qui leur permettent une dissémination plus importante, en flottant dans l'eau de mer pendant un peu plus d'une année, de 15 à 18 mois, tout en gardant jusqu'à 30 % de leur capacité de germination : elles sont transportées et disséminées par les courants océaniques de l'Atlantique nord dans les régions tempérées (Royaume-Uni, Irlande, côte de l'Amérique du Nord), par les courants océaniques de l'Indo-Pacifique dans les régions tempérées ainsi que dans la Manche, la Méditerranée et la Mer Noire.
 Cycles de vie
 L'appareil reproducteur de cette plante vivace est une inflorescence en grappe de fleurs solitaires de 3 à 5 cm dont le calice à 5 dents est protégé par une paire de grosses bractéoles ovoïdes à suborbiculaires.
 La corolle en entonnoir est formée de 5 pétales roses ou pourprés, avec souvent des rayures blanchâtres. L'androcée est constitué de 5 étamines, le pistil de 2 carpelles soudées.
@@ -581,64 +670,68 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Calystegia_soldanella</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Calystegia_soldanella</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Psammophyte, les dunes submaritimes vivaces thermophiles sont son habitat-type. Hémicryptophyte stolonifère ou géophyte à rhizome, elle a une aire de répartition cosmopolite[9] : côtes du Royaume Uni, de l'Irlande et de l'Amérique du Nord ; Mer Méditerranée et Mer Noire ; côtes tempérées de l'Indo-Pacifique ; etc.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Psammophyte, les dunes submaritimes vivaces thermophiles sont son habitat-type. Hémicryptophyte stolonifère ou géophyte à rhizome, elle a une aire de répartition cosmopolite : côtes du Royaume Uni, de l'Irlande et de l'Amérique du Nord ; Mer Méditerranée et Mer Noire ; côtes tempérées de l'Indo-Pacifique ; etc.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Calystegia_soldanella</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Calystegia_soldanella</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Statuts de protection, menaces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce n'est pas encore évaluée à l'échelle mondiale et européenne par l'UICN. En France elle est classée comme non préoccupante [10]. Toutefois localement l'espèce est considérée en danger-critique (CR) en Haute-Normandie ; en danger (EN) en Provence-Alpes-Côte d'Azur, comme vulnérable (VU) en Picardie.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce n'est pas encore évaluée à l'échelle mondiale et européenne par l'UICN. En France elle est classée comme non préoccupante . Toutefois localement l'espèce est considérée en danger-critique (CR) en Haute-Normandie ; en danger (EN) en Provence-Alpes-Côte d'Azur, comme vulnérable (VU) en Picardie.
 </t>
         </is>
       </c>
